--- a/ClosedXML.Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -430,47 +430,47 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3" customFormat="1" ht="15" customHeight="1">
+    <x:row r="1" spans="1:3" ht="15" customHeight="1">
       <x:c r="A1" s="1" t="s"/>
       <x:c r="B1" s="1" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:3" customFormat="1" ht="15" customHeight="1">
+    <x:row r="2" spans="1:3" ht="15" customHeight="1">
       <x:c r="A2" s="1" t="s"/>
       <x:c r="B2" s="1" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:3" customFormat="1" ht="15" customHeight="1">
+    <x:row r="4" spans="1:3" ht="15" customHeight="1">
       <x:c r="B4" s="2" t="s"/>
       <x:c r="C4" s="2" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:3" customFormat="1" ht="15" customHeight="1">
+    <x:row r="5" spans="1:3" ht="15" customHeight="1">
       <x:c r="B5" s="2" t="s"/>
       <x:c r="C5" s="2" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:3" customFormat="1" ht="15" customHeight="1">
+    <x:row r="7" spans="1:3" ht="15" customHeight="1">
       <x:c r="B7" s="3" t="s"/>
       <x:c r="C7" s="3" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:3" customFormat="1" ht="15" customHeight="1">
+    <x:row r="8" spans="1:3" ht="15" customHeight="1">
       <x:c r="B8" s="3" t="s"/>
       <x:c r="C8" s="3" t="s"/>
     </x:row>
-    <x:row r="10" spans="1:3" customFormat="1" ht="15" customHeight="1">
+    <x:row r="10" spans="1:3" ht="15" customHeight="1">
       <x:c r="B10" s="4" t="s"/>
       <x:c r="C10" s="4" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:3" customFormat="1" ht="15" customHeight="1">
+    <x:row r="11" spans="1:3" ht="15" customHeight="1">
       <x:c r="B11" s="4" t="s"/>
       <x:c r="C11" s="4" t="s"/>
     </x:row>
-    <x:row r="13" spans="1:3" customFormat="1" ht="15" customHeight="1">
+    <x:row r="13" spans="1:3" ht="15" customHeight="1">
       <x:c r="B13" s="4" t="s"/>
       <x:c r="C13" s="4" t="s"/>
     </x:row>
-    <x:row r="14" spans="1:3" customFormat="1" ht="15" customHeight="1">
+    <x:row r="14" spans="1:3" ht="15" customHeight="1">
       <x:c r="B14" s="4" t="s"/>
       <x:c r="C14" s="4" t="s"/>
     </x:row>
-    <x:row r="16" spans="1:3" customFormat="1" ht="15" customHeight="1">
+    <x:row r="16" spans="1:3" ht="15" customHeight="1">
       <x:c r="B16" s="5" t="s"/>
       <x:c r="C16" s="5" t="s"/>
     </x:row>
@@ -496,16 +496,16 @@
   <x:sheetData>
     <x:row r="1" s="2" customFormat="1" ht="15" customHeight="1"/>
     <x:row r="2" s="2" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="3" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="3" ht="15" customHeight="1"/>
     <x:row r="4" s="3" customFormat="1" ht="15" customHeight="1"/>
     <x:row r="5" s="3" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="6" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="6" ht="15" customHeight="1"/>
     <x:row r="7" s="4" customFormat="1" ht="15" customHeight="1"/>
     <x:row r="8" s="4" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="9" ht="15" customHeight="1"/>
     <x:row r="10" s="4" customFormat="1" ht="15" customHeight="1"/>
     <x:row r="11" s="4" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="12" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="12" ht="15" customHeight="1"/>
     <x:row r="13" s="5" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML.Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -494,19 +494,19 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" s="2" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="2" s="2" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="3" ht="15" customHeight="1"/>
-    <x:row r="4" s="3" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="5" s="3" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="6" ht="15" customHeight="1"/>
-    <x:row r="7" s="4" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="8" s="4" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="9" ht="15" customHeight="1"/>
-    <x:row r="10" s="4" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="11" s="4" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="12" ht="15" customHeight="1"/>
-    <x:row r="13" s="5" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="1" s="2" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="2" s="2" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="3" ht="30" customHeight="1"/>
+    <x:row r="4" s="3" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="5" s="3" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="6" ht="30" customHeight="1"/>
+    <x:row r="7" s="4" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="8" s="4" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="9" ht="30" customHeight="1"/>
+    <x:row r="10" s="4" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="11" s="4" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="12" ht="30" customHeight="1"/>
+    <x:row r="13" s="5" customFormat="1" ht="30" customHeight="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -431,48 +431,48 @@
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="15" customHeight="1">
-      <x:c r="A1" s="1" t="s"/>
-      <x:c r="B1" s="1" t="s"/>
+      <x:c r="A1" s="1"/>
+      <x:c r="B1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:3" ht="15" customHeight="1">
-      <x:c r="A2" s="1" t="s"/>
-      <x:c r="B2" s="1" t="s"/>
+      <x:c r="A2" s="1"/>
+      <x:c r="B2" s="1"/>
     </x:row>
     <x:row r="4" spans="1:3" ht="15" customHeight="1">
-      <x:c r="B4" s="2" t="s"/>
-      <x:c r="C4" s="2" t="s"/>
+      <x:c r="B4" s="2"/>
+      <x:c r="C4" s="2"/>
     </x:row>
     <x:row r="5" spans="1:3" ht="15" customHeight="1">
-      <x:c r="B5" s="2" t="s"/>
-      <x:c r="C5" s="2" t="s"/>
+      <x:c r="B5" s="2"/>
+      <x:c r="C5" s="2"/>
     </x:row>
     <x:row r="7" spans="1:3" ht="15" customHeight="1">
-      <x:c r="B7" s="3" t="s"/>
-      <x:c r="C7" s="3" t="s"/>
+      <x:c r="B7" s="3"/>
+      <x:c r="C7" s="3"/>
     </x:row>
     <x:row r="8" spans="1:3" ht="15" customHeight="1">
-      <x:c r="B8" s="3" t="s"/>
-      <x:c r="C8" s="3" t="s"/>
+      <x:c r="B8" s="3"/>
+      <x:c r="C8" s="3"/>
     </x:row>
     <x:row r="10" spans="1:3" ht="15" customHeight="1">
-      <x:c r="B10" s="4" t="s"/>
-      <x:c r="C10" s="4" t="s"/>
+      <x:c r="B10" s="4"/>
+      <x:c r="C10" s="4"/>
     </x:row>
     <x:row r="11" spans="1:3" ht="15" customHeight="1">
-      <x:c r="B11" s="4" t="s"/>
-      <x:c r="C11" s="4" t="s"/>
+      <x:c r="B11" s="4"/>
+      <x:c r="C11" s="4"/>
     </x:row>
     <x:row r="13" spans="1:3" ht="15" customHeight="1">
-      <x:c r="B13" s="4" t="s"/>
-      <x:c r="C13" s="4" t="s"/>
+      <x:c r="B13" s="4"/>
+      <x:c r="C13" s="4"/>
     </x:row>
     <x:row r="14" spans="1:3" ht="15" customHeight="1">
-      <x:c r="B14" s="4" t="s"/>
-      <x:c r="C14" s="4" t="s"/>
+      <x:c r="B14" s="4"/>
+      <x:c r="C14" s="4"/>
     </x:row>
     <x:row r="16" spans="1:3" ht="15" customHeight="1">
-      <x:c r="B16" s="5" t="s"/>
-      <x:c r="C16" s="5" t="s"/>
+      <x:c r="B16" s="5"/>
+      <x:c r="C16" s="5"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML.Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -494,19 +494,19 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" s="2" customFormat="1" ht="30" customHeight="1"/>
-    <x:row r="2" s="2" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="1" ht="30" customHeight="1" s="2" customFormat="1"/>
+    <x:row r="2" ht="30" customHeight="1" s="2" customFormat="1"/>
     <x:row r="3" ht="30" customHeight="1"/>
-    <x:row r="4" s="3" customFormat="1" ht="30" customHeight="1"/>
-    <x:row r="5" s="3" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="4" ht="30" customHeight="1" s="3" customFormat="1"/>
+    <x:row r="5" ht="30" customHeight="1" s="3" customFormat="1"/>
     <x:row r="6" ht="30" customHeight="1"/>
-    <x:row r="7" s="4" customFormat="1" ht="30" customHeight="1"/>
-    <x:row r="8" s="4" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="7" ht="30" customHeight="1" s="4" customFormat="1"/>
+    <x:row r="8" ht="30" customHeight="1" s="4" customFormat="1"/>
     <x:row r="9" ht="30" customHeight="1"/>
-    <x:row r="10" s="4" customFormat="1" ht="30" customHeight="1"/>
-    <x:row r="11" s="4" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="10" ht="30" customHeight="1" s="4" customFormat="1"/>
+    <x:row r="11" ht="30" customHeight="1" s="4" customFormat="1"/>
     <x:row r="12" ht="30" customHeight="1"/>
-    <x:row r="13" s="5" customFormat="1" ht="30" customHeight="1"/>
+    <x:row r="13" ht="30" customHeight="1" s="5" customFormat="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Rows of a Range" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Rows of a Worksheet" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Rows of a Range" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Rows of a Worksheet" sheetId="2" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
